--- a/formats/excel/Formats RPSA ANO 16.xlsx
+++ b/formats/excel/Formats RPSA ANO 16.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Github/formats_pmeasyr/formats/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="690" windowWidth="23235" windowHeight="10230"/>
+    <workbookView xWindow="1460" yWindow="460" windowWidth="27340" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -144,9 +157,6 @@
     <t>N° séquentiel de séjour</t>
   </si>
   <si>
-    <t>NOSEJHAD</t>
-  </si>
-  <si>
     <t>Date d'entrée</t>
   </si>
   <si>
@@ -511,6 +521,9 @@
   </si>
   <si>
     <t>NUMCOMP</t>
+  </si>
+  <si>
+    <t>NOSEQSEJ</t>
   </si>
 </sst>
 </file>
@@ -565,7 +578,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Bureau">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -603,14 +616,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Bureau">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -640,12 +653,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -675,7 +688,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Bureau">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -852,12 +865,12 @@
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F80"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -877,7 +890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -897,7 +910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -917,7 +930,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -937,7 +950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -957,7 +970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -977,7 +990,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -997,7 +1010,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1017,7 +1030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1037,7 +1050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1057,7 +1070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1077,7 +1090,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1097,7 +1110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1117,7 +1130,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1137,7 +1150,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1157,7 +1170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1177,7 +1190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1197,7 +1210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1217,7 +1230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1231,15 +1244,15 @@
         <v>67</v>
       </c>
       <c r="E19" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>42</v>
-      </c>
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>43</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -1251,15 +1264,15 @@
         <v>75</v>
       </c>
       <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>44</v>
-      </c>
-      <c r="F20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>45</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -1271,15 +1284,15 @@
         <v>83</v>
       </c>
       <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>46</v>
-      </c>
-      <c r="F21" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>47</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1291,15 +1304,15 @@
         <v>84</v>
       </c>
       <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>48</v>
-      </c>
-      <c r="F22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>49</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1311,15 +1324,15 @@
         <v>85</v>
       </c>
       <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>50</v>
-      </c>
-      <c r="F23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>51</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1331,15 +1344,15 @@
         <v>86</v>
       </c>
       <c r="E24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>52</v>
-      </c>
-      <c r="F24" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>53</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1351,15 +1364,15 @@
         <v>87</v>
       </c>
       <c r="E25" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>54</v>
-      </c>
-      <c r="F25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>55</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1371,15 +1384,15 @@
         <v>88</v>
       </c>
       <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>56</v>
-      </c>
-      <c r="F26" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>57</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1391,15 +1404,15 @@
         <v>89</v>
       </c>
       <c r="E27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>58</v>
-      </c>
-      <c r="F27" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>59</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1411,15 +1424,15 @@
         <v>90</v>
       </c>
       <c r="E28" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>60</v>
-      </c>
-      <c r="F28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>61</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1431,15 +1444,15 @@
         <v>91</v>
       </c>
       <c r="E29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>62</v>
-      </c>
-      <c r="F29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>63</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1451,15 +1464,15 @@
         <v>92</v>
       </c>
       <c r="E30" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>64</v>
-      </c>
-      <c r="F30" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>65</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1471,15 +1484,15 @@
         <v>93</v>
       </c>
       <c r="E31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>66</v>
-      </c>
-      <c r="F31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>67</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1491,15 +1504,15 @@
         <v>94</v>
       </c>
       <c r="E32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>68</v>
-      </c>
-      <c r="F32" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>69</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1511,15 +1524,15 @@
         <v>95</v>
       </c>
       <c r="E33" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>70</v>
-      </c>
-      <c r="F33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>71</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1531,15 +1544,15 @@
         <v>96</v>
       </c>
       <c r="E34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>72</v>
-      </c>
-      <c r="F34" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>73</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1551,15 +1564,15 @@
         <v>97</v>
       </c>
       <c r="E35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>74</v>
-      </c>
-      <c r="F35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>75</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1571,15 +1584,15 @@
         <v>98</v>
       </c>
       <c r="E36" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>76</v>
-      </c>
-      <c r="F36" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>77</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1591,15 +1604,15 @@
         <v>99</v>
       </c>
       <c r="E37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>78</v>
-      </c>
-      <c r="F37" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>79</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1611,15 +1624,15 @@
         <v>100</v>
       </c>
       <c r="E38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>80</v>
-      </c>
-      <c r="F38" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>81</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -1631,15 +1644,15 @@
         <v>103</v>
       </c>
       <c r="E39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>82</v>
-      </c>
-      <c r="F39" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>83</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1651,15 +1664,15 @@
         <v>104</v>
       </c>
       <c r="E40" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>84</v>
-      </c>
-      <c r="F40" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>85</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1671,15 +1684,15 @@
         <v>105</v>
       </c>
       <c r="E41" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>86</v>
-      </c>
-      <c r="F41" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>87</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1691,15 +1704,15 @@
         <v>106</v>
       </c>
       <c r="E42" t="s">
+        <v>87</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>88</v>
-      </c>
-      <c r="F42" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>89</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1711,15 +1724,15 @@
         <v>107</v>
       </c>
       <c r="E43" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>90</v>
-      </c>
-      <c r="F43" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>91</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1731,15 +1744,15 @@
         <v>108</v>
       </c>
       <c r="E44" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>92</v>
-      </c>
-      <c r="F44" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>93</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1751,15 +1764,15 @@
         <v>109</v>
       </c>
       <c r="E45" t="s">
+        <v>93</v>
+      </c>
+      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>94</v>
-      </c>
-      <c r="F45" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>95</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -1771,15 +1784,15 @@
         <v>110</v>
       </c>
       <c r="E46" t="s">
+        <v>95</v>
+      </c>
+      <c r="F46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>96</v>
-      </c>
-      <c r="F46" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>97</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1791,15 +1804,15 @@
         <v>111</v>
       </c>
       <c r="E47" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>98</v>
-      </c>
-      <c r="F47" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>99</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1811,15 +1824,15 @@
         <v>112</v>
       </c>
       <c r="E48" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>100</v>
-      </c>
-      <c r="F48" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>101</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1831,15 +1844,15 @@
         <v>113</v>
       </c>
       <c r="E49" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>102</v>
-      </c>
-      <c r="F49" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>103</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1851,15 +1864,15 @@
         <v>114</v>
       </c>
       <c r="E50" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>104</v>
-      </c>
-      <c r="F50" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>105</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -1871,15 +1884,15 @@
         <v>116</v>
       </c>
       <c r="E51" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>106</v>
-      </c>
-      <c r="F51" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>107</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -1891,15 +1904,15 @@
         <v>118</v>
       </c>
       <c r="E52" t="s">
+        <v>107</v>
+      </c>
+      <c r="F52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>108</v>
-      </c>
-      <c r="F52" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>109</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1911,15 +1924,15 @@
         <v>119</v>
       </c>
       <c r="E53" t="s">
+        <v>109</v>
+      </c>
+      <c r="F53" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>110</v>
-      </c>
-      <c r="F53" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>111</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1931,15 +1944,15 @@
         <v>120</v>
       </c>
       <c r="E54" t="s">
+        <v>111</v>
+      </c>
+      <c r="F54" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>112</v>
-      </c>
-      <c r="F54" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>113</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -1951,15 +1964,15 @@
         <v>122</v>
       </c>
       <c r="E55" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>114</v>
-      </c>
-      <c r="F55" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>115</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -1971,15 +1984,15 @@
         <v>124</v>
       </c>
       <c r="E56" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>116</v>
-      </c>
-      <c r="F56" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>117</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -1991,15 +2004,15 @@
         <v>125</v>
       </c>
       <c r="E57" t="s">
+        <v>117</v>
+      </c>
+      <c r="F57" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>118</v>
-      </c>
-      <c r="F57" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>119</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -2011,15 +2024,15 @@
         <v>126</v>
       </c>
       <c r="E58" t="s">
+        <v>119</v>
+      </c>
+      <c r="F58" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>120</v>
-      </c>
-      <c r="F58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>121</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -2031,15 +2044,15 @@
         <v>127</v>
       </c>
       <c r="E59" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59" t="s">
         <v>122</v>
       </c>
-      <c r="F59" t="s">
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>123</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>124</v>
       </c>
       <c r="B60">
         <v>4</v>
@@ -2051,15 +2064,15 @@
         <v>131</v>
       </c>
       <c r="E60" t="s">
+        <v>124</v>
+      </c>
+      <c r="F60" t="s">
         <v>125</v>
       </c>
-      <c r="F60" t="s">
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>127</v>
       </c>
       <c r="B61">
         <v>10</v>
@@ -2071,15 +2084,15 @@
         <v>141</v>
       </c>
       <c r="E61" t="s">
+        <v>127</v>
+      </c>
+      <c r="F61" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>128</v>
-      </c>
-      <c r="F61" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>129</v>
       </c>
       <c r="B62">
         <v>10</v>
@@ -2091,15 +2104,15 @@
         <v>151</v>
       </c>
       <c r="E62" t="s">
+        <v>129</v>
+      </c>
+      <c r="F62" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>130</v>
-      </c>
-      <c r="F62" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>131</v>
       </c>
       <c r="B63">
         <v>10</v>
@@ -2111,15 +2124,15 @@
         <v>161</v>
       </c>
       <c r="E63" t="s">
+        <v>131</v>
+      </c>
+      <c r="F63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>132</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>133</v>
       </c>
       <c r="B64">
         <v>4</v>
@@ -2131,15 +2144,15 @@
         <v>165</v>
       </c>
       <c r="E64" t="s">
+        <v>133</v>
+      </c>
+      <c r="F64" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>134</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>135</v>
       </c>
       <c r="B65">
         <v>10</v>
@@ -2151,15 +2164,15 @@
         <v>175</v>
       </c>
       <c r="E65" t="s">
+        <v>135</v>
+      </c>
+      <c r="F65" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>136</v>
-      </c>
-      <c r="F65" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>137</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -2171,15 +2184,15 @@
         <v>180</v>
       </c>
       <c r="E66" t="s">
+        <v>137</v>
+      </c>
+      <c r="F66" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>138</v>
-      </c>
-      <c r="F66" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>139</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -2191,15 +2204,15 @@
         <v>181</v>
       </c>
       <c r="E67" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F67" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B68">
         <v>29</v>
@@ -2211,15 +2224,15 @@
         <v>210</v>
       </c>
       <c r="E68" t="s">
+        <v>140</v>
+      </c>
+      <c r="F68" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>141</v>
-      </c>
-      <c r="F68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>142</v>
       </c>
       <c r="B69">
         <v>8</v>
@@ -2231,15 +2244,15 @@
         <v>218</v>
       </c>
       <c r="E69" t="s">
+        <v>142</v>
+      </c>
+      <c r="F69" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>143</v>
-      </c>
-      <c r="F69" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>144</v>
       </c>
       <c r="B70">
         <v>10</v>
@@ -2251,15 +2264,15 @@
         <v>228</v>
       </c>
       <c r="E70" t="s">
+        <v>144</v>
+      </c>
+      <c r="F70" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>145</v>
-      </c>
-      <c r="F70" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>146</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -2271,15 +2284,15 @@
         <v>229</v>
       </c>
       <c r="E71" t="s">
+        <v>146</v>
+      </c>
+      <c r="F71" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>147</v>
-      </c>
-      <c r="F71" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>148</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -2291,15 +2304,15 @@
         <v>235</v>
       </c>
       <c r="E72" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F72" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -2311,15 +2324,15 @@
         <v>238</v>
       </c>
       <c r="E73" t="s">
+        <v>149</v>
+      </c>
+      <c r="F73" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>150</v>
-      </c>
-      <c r="F73" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>151</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -2331,15 +2344,15 @@
         <v>239</v>
       </c>
       <c r="E74" t="s">
+        <v>151</v>
+      </c>
+      <c r="F74" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>152</v>
-      </c>
-      <c r="F74" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>153</v>
       </c>
       <c r="B75">
         <v>3</v>
@@ -2351,15 +2364,15 @@
         <v>242</v>
       </c>
       <c r="E75" t="s">
+        <v>153</v>
+      </c>
+      <c r="F75" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>154</v>
-      </c>
-      <c r="F75" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>155</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -2371,15 +2384,15 @@
         <v>245</v>
       </c>
       <c r="E76" t="s">
+        <v>155</v>
+      </c>
+      <c r="F76" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>156</v>
-      </c>
-      <c r="F76" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>157</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -2391,15 +2404,15 @@
         <v>249</v>
       </c>
       <c r="E77" t="s">
+        <v>157</v>
+      </c>
+      <c r="F77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>158</v>
-      </c>
-      <c r="F77" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>159</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -2411,15 +2424,15 @@
         <v>250</v>
       </c>
       <c r="E78" t="s">
+        <v>159</v>
+      </c>
+      <c r="F78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>160</v>
-      </c>
-      <c r="F78" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>161</v>
       </c>
       <c r="B79">
         <v>9</v>
@@ -2431,15 +2444,15 @@
         <v>259</v>
       </c>
       <c r="E79" t="s">
+        <v>161</v>
+      </c>
+      <c r="F79" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>162</v>
-      </c>
-      <c r="F79" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>163</v>
       </c>
       <c r="B80">
         <v>10</v>
@@ -2451,7 +2464,7 @@
         <v>269</v>
       </c>
       <c r="E80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F80" t="s">
         <v>8</v>
@@ -2468,7 +2481,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2480,7 +2493,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/formats/excel/Formats RPSA ANO 16.xlsx
+++ b/formats/excel/Formats RPSA ANO 16.xlsx
@@ -1,35 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaumepressiat/Github/formats_pmeasyr/formats/excel/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="460" windowWidth="27340" windowHeight="17540"/>
+    <workbookView windowWidth="24240" windowHeight="12855"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil2" sheetId="2" r:id="rId2"/>
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165">
   <si>
     <t>libelle</t>
   </si>
@@ -154,9 +141,15 @@
     <t>NOSEJ</t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
     <t>N° séquentiel de séjour</t>
   </si>
   <si>
+    <t>NOSEQSEJ</t>
+  </si>
+  <si>
     <t>Date d'entrée</t>
   </si>
   <si>
@@ -397,9 +390,6 @@
     <t>FACT18E</t>
   </si>
   <si>
-    <t>i</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nombre de venues de la facture </t>
   </si>
   <si>
@@ -521,33 +511,373 @@
   </si>
   <si>
     <t>NUMCOMP</t>
-  </si>
-  <si>
-    <t>NOSEQSEJ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -555,23 +885,307 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -580,7 +1194,7 @@
   <a:themeElements>
     <a:clrScheme name="Bureau">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="4C4C4C"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -618,7 +1232,7 @@
     </a:clrScheme>
     <a:fontScheme name="Bureau">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -653,7 +1267,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -861,16 +1475,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -890,7 +1505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -910,7 +1525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -930,7 +1545,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -950,7 +1565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -970,7 +1585,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -990,7 +1605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -1010,7 +1625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1030,7 +1645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -1050,7 +1665,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1070,7 +1685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1090,7 +1705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1110,7 +1725,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -1130,7 +1745,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>31</v>
       </c>
@@ -1150,7 +1765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1170,7 +1785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1190,7 +1805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1210,7 +1825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1227,12 +1842,12 @@
         <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>6</v>
@@ -1244,15 +1859,15 @@
         <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>164</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B20">
         <v>8</v>
@@ -1264,15 +1879,15 @@
         <v>75</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B21">
         <v>8</v>
@@ -1284,15 +1899,15 @@
         <v>83</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1304,15 +1919,15 @@
         <v>84</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1324,15 +1939,15 @@
         <v>85</v>
       </c>
       <c r="E23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1344,15 +1959,15 @@
         <v>86</v>
       </c>
       <c r="E24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -1364,15 +1979,15 @@
         <v>87</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -1384,15 +1999,15 @@
         <v>88</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -1404,15 +2019,15 @@
         <v>89</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -1424,15 +2039,15 @@
         <v>90</v>
       </c>
       <c r="E28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F28" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1444,15 +2059,15 @@
         <v>91</v>
       </c>
       <c r="E29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F29" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -1464,15 +2079,15 @@
         <v>92</v>
       </c>
       <c r="E30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F30" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -1484,15 +2099,15 @@
         <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -1504,15 +2119,15 @@
         <v>94</v>
       </c>
       <c r="E32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F32" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1524,15 +2139,15 @@
         <v>95</v>
       </c>
       <c r="E33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F33" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -1544,15 +2159,15 @@
         <v>96</v>
       </c>
       <c r="E34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F34" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -1564,15 +2179,15 @@
         <v>97</v>
       </c>
       <c r="E35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -1584,15 +2199,15 @@
         <v>98</v>
       </c>
       <c r="E36" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -1604,15 +2219,15 @@
         <v>99</v>
       </c>
       <c r="E37" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -1624,15 +2239,15 @@
         <v>100</v>
       </c>
       <c r="E38" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F38" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -1644,15 +2259,15 @@
         <v>103</v>
       </c>
       <c r="E39" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F39" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -1664,15 +2279,15 @@
         <v>104</v>
       </c>
       <c r="E40" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F40" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1684,15 +2299,15 @@
         <v>105</v>
       </c>
       <c r="E41" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -1704,15 +2319,15 @@
         <v>106</v>
       </c>
       <c r="E42" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F42" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -1724,15 +2339,15 @@
         <v>107</v>
       </c>
       <c r="E43" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F43" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -1744,15 +2359,15 @@
         <v>108</v>
       </c>
       <c r="E44" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F44" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1764,15 +2379,15 @@
         <v>109</v>
       </c>
       <c r="E45" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F45" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -1784,15 +2399,15 @@
         <v>110</v>
       </c>
       <c r="E46" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F46" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -1804,15 +2419,15 @@
         <v>111</v>
       </c>
       <c r="E47" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F47" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -1824,15 +2439,15 @@
         <v>112</v>
       </c>
       <c r="E48" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F48" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1844,15 +2459,15 @@
         <v>113</v>
       </c>
       <c r="E49" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F49" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -1864,15 +2479,15 @@
         <v>114</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F50" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B51">
         <v>2</v>
@@ -1884,15 +2499,15 @@
         <v>116</v>
       </c>
       <c r="E51" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F51" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -1904,15 +2519,15 @@
         <v>118</v>
       </c>
       <c r="E52" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F52" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -1924,15 +2539,15 @@
         <v>119</v>
       </c>
       <c r="E53" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F53" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1944,15 +2559,15 @@
         <v>120</v>
       </c>
       <c r="E54" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F54" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -1964,15 +2579,15 @@
         <v>122</v>
       </c>
       <c r="E55" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F55" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -1984,15 +2599,15 @@
         <v>124</v>
       </c>
       <c r="E56" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F56" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -2004,15 +2619,15 @@
         <v>125</v>
       </c>
       <c r="E57" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F57" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -2024,15 +2639,15 @@
         <v>126</v>
       </c>
       <c r="E58" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F58" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -2044,15 +2659,15 @@
         <v>127</v>
       </c>
       <c r="E59" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F59" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B60">
         <v>4</v>
@@ -2064,15 +2679,15 @@
         <v>131</v>
       </c>
       <c r="E60" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F60" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B61">
         <v>10</v>
@@ -2084,15 +2699,15 @@
         <v>141</v>
       </c>
       <c r="E61" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F61" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B62">
         <v>10</v>
@@ -2104,15 +2719,15 @@
         <v>151</v>
       </c>
       <c r="E62" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F62" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B63">
         <v>10</v>
@@ -2124,15 +2739,15 @@
         <v>161</v>
       </c>
       <c r="E63" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F63" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B64">
         <v>4</v>
@@ -2144,15 +2759,15 @@
         <v>165</v>
       </c>
       <c r="E64" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F64" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B65">
         <v>10</v>
@@ -2164,15 +2779,15 @@
         <v>175</v>
       </c>
       <c r="E65" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F65" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -2184,15 +2799,15 @@
         <v>180</v>
       </c>
       <c r="E66" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F66" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -2204,15 +2819,15 @@
         <v>181</v>
       </c>
       <c r="E67" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F67" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B68">
         <v>29</v>
@@ -2224,15 +2839,15 @@
         <v>210</v>
       </c>
       <c r="E68" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F68" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B69">
         <v>8</v>
@@ -2244,15 +2859,15 @@
         <v>218</v>
       </c>
       <c r="E69" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F69" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B70">
         <v>10</v>
@@ -2264,15 +2879,15 @@
         <v>228</v>
       </c>
       <c r="E70" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F70" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -2284,15 +2899,15 @@
         <v>229</v>
       </c>
       <c r="E71" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F71" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -2304,15 +2919,15 @@
         <v>235</v>
       </c>
       <c r="E72" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F72" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B73">
         <v>3</v>
@@ -2324,15 +2939,15 @@
         <v>238</v>
       </c>
       <c r="E73" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F73" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -2344,15 +2959,15 @@
         <v>239</v>
       </c>
       <c r="E74" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F74" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B75">
         <v>3</v>
@@ -2364,15 +2979,15 @@
         <v>242</v>
       </c>
       <c r="E75" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F75" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -2384,15 +2999,15 @@
         <v>245</v>
       </c>
       <c r="E76" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F76" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B77">
         <v>4</v>
@@ -2404,15 +3019,15 @@
         <v>249</v>
       </c>
       <c r="E77" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F77" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -2424,15 +3039,15 @@
         <v>250</v>
       </c>
       <c r="E78" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F78" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B79">
         <v>9</v>
@@ -2444,15 +3059,15 @@
         <v>259</v>
       </c>
       <c r="E79" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F79" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B80">
         <v>10</v>
@@ -2464,37 +3079,46 @@
         <v>269</v>
       </c>
       <c r="E80" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F80" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/formats/excel/Formats RPSA ANO 16.xlsx
+++ b/formats/excel/Formats RPSA ANO 16.xlsx
@@ -396,13 +396,13 @@
     <t>NBEVEN</t>
   </si>
   <si>
+    <t xml:space="preserve">Montant à facturer au titre du ticket modérateur </t>
+  </si>
+  <si>
+    <t>MTFACTMO</t>
+  </si>
+  <si>
     <t>n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montant à facturer au titre du ticket modérateur </t>
-  </si>
-  <si>
-    <t>MTFACTMO</t>
   </si>
   <si>
     <t xml:space="preserve">Montant à facturer au titre du forfait journalier  </t>
@@ -519,18 +519,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,103 +535,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,10 +556,39 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -675,6 +600,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -682,6 +615,66 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -698,7 +691,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,7 +715,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,6 +733,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -746,13 +817,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,115 +859,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -905,7 +898,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -929,7 +937,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,15 +958,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -968,166 +976,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1479,8 +1472,8 @@
   <sheetPr/>
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -2662,7 +2655,7 @@
         <v>123</v>
       </c>
       <c r="F59" t="s">
-        <v>41</v>
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2682,12 +2675,12 @@
         <v>125</v>
       </c>
       <c r="F60" t="s">
-        <v>126</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B61">
         <v>10</v>
@@ -2699,10 +2692,10 @@
         <v>141</v>
       </c>
       <c r="E61" t="s">
+        <v>127</v>
+      </c>
+      <c r="F61" t="s">
         <v>128</v>
-      </c>
-      <c r="F61" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2722,7 +2715,7 @@
         <v>130</v>
       </c>
       <c r="F62" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2742,7 +2735,7 @@
         <v>132</v>
       </c>
       <c r="F63" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2762,7 +2755,7 @@
         <v>134</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2782,7 +2775,7 @@
         <v>136</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2802,7 +2795,7 @@
         <v>138</v>
       </c>
       <c r="F66" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2882,7 +2875,7 @@
         <v>145</v>
       </c>
       <c r="F70" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:6">
